--- a/BDD_scraping_ajout_fonctions.xlsx
+++ b/BDD_scraping_ajout_fonctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1da722ffa659bf72/CINEMA/STREAMLIT_CINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_69C552B6D3F0D5AC6CC683B0535ED87656CF5B0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F868F466-5138-4EC3-BF56-DC85FA4EA26A}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_69C552B6D3F0D5AC6CC683B0535ED87656CF5B0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEE2828-D821-410D-9EE4-7FBF6BD07107}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1427">
   <si>
     <t>Nom</t>
   </si>
@@ -4190,6 +4190,117 @@
   </si>
   <si>
     <t>180 917 210 $</t>
+  </si>
+  <si>
+    <t>Garde à vue</t>
+  </si>
+  <si>
+    <t>2098038</t>
+  </si>
+  <si>
+    <t>165240</t>
+  </si>
+  <si>
+    <t>726359</t>
+  </si>
+  <si>
+    <t>À bord du Darjeeling Limited</t>
+  </si>
+  <si>
+    <t>1761335$</t>
+  </si>
+  <si>
+    <t>11896380$</t>
+  </si>
+  <si>
+    <t>23176203$</t>
+  </si>
+  <si>
+    <t>5364473$</t>
+  </si>
+  <si>
+    <t>35072583$</t>
+  </si>
+  <si>
+    <t>155971</t>
+  </si>
+  <si>
+    <t>565603</t>
+  </si>
+  <si>
+    <t>246464</t>
+  </si>
+  <si>
+    <t>Sous le soleil de Satan</t>
+  </si>
+  <si>
+    <t>6987$</t>
+  </si>
+  <si>
+    <t>68765$</t>
+  </si>
+  <si>
+    <t>815748</t>
+  </si>
+  <si>
+    <t>245547</t>
+  </si>
+  <si>
+    <t>Hana-bi</t>
+  </si>
+  <si>
+    <t>500000$</t>
+  </si>
+  <si>
+    <t>6017823$</t>
+  </si>
+  <si>
+    <t>6517823$</t>
+  </si>
+  <si>
+    <t>29292</t>
+  </si>
+  <si>
+    <t>269141</t>
+  </si>
+  <si>
+    <t>20876</t>
+  </si>
+  <si>
+    <t>137139</t>
+  </si>
+  <si>
+    <t>Léon</t>
+  </si>
+  <si>
+    <t>5306558$</t>
+  </si>
+  <si>
+    <t>19501238$</t>
+  </si>
+  <si>
+    <t>2320000$</t>
+  </si>
+  <si>
+    <t>21821238$</t>
+  </si>
+  <si>
+    <t>792836</t>
+  </si>
+  <si>
+    <t>3546077</t>
+  </si>
+  <si>
+    <t>243285</t>
+  </si>
+  <si>
+    <t>836069</t>
+  </si>
+  <si>
+    <t>106%</t>
+  </si>
+  <si>
+    <t>15494589</t>
   </si>
 </sst>
 </file>
@@ -4563,13 +4674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomRight" activeCell="K208" sqref="K208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10548,6 +10659,163 @@
         <v>1383</v>
       </c>
     </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>45794</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H204" t="s">
+        <v>299</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J205" t="s">
+        <v>299</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>45801</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E206" t="s">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H206" t="s">
+        <v>299</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J206" t="s">
+        <v>299</v>
+      </c>
+      <c r="K206" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>45802</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K207" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>45803</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K208" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L208" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M208" t="s">
+        <v>1426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BDD_scraping_ajout_fonctions.xlsx
+++ b/BDD_scraping_ajout_fonctions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1da722ffa659bf72/CINEMA/STREAMLIT_CINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_69C552B6D3F0D5AC6CC683B0535ED87656CF5B0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEE2828-D821-410D-9EE4-7FBF6BD07107}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_69C552B6D3F0D5AC6CC683B0535ED87656CF5B0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D20E338F-4502-448B-885B-36D3842C5166}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="1509">
   <si>
     <t>Nom</t>
   </si>
@@ -4301,6 +4301,252 @@
   </si>
   <si>
     <t>15494589</t>
+  </si>
+  <si>
+    <t>Les Contes de la lune vague après la pluie</t>
+  </si>
+  <si>
+    <t>La Grande Bouffe</t>
+  </si>
+  <si>
+    <t>2801657</t>
+  </si>
+  <si>
+    <t>978179</t>
+  </si>
+  <si>
+    <t>La Venue de l'avenir</t>
+  </si>
+  <si>
+    <t>190690</t>
+  </si>
+  <si>
+    <t>842798</t>
+  </si>
+  <si>
+    <t>58436</t>
+  </si>
+  <si>
+    <t>220711</t>
+  </si>
+  <si>
+    <t>Before Sunrise</t>
+  </si>
+  <si>
+    <t>1423537$</t>
+  </si>
+  <si>
+    <t>5535405$</t>
+  </si>
+  <si>
+    <t>17200000$</t>
+  </si>
+  <si>
+    <t>22735405$</t>
+  </si>
+  <si>
+    <t>30679</t>
+  </si>
+  <si>
+    <t>Les Garçons et Guillaume, à table !</t>
+  </si>
+  <si>
+    <t>24589900$</t>
+  </si>
+  <si>
+    <t>22479449$</t>
+  </si>
+  <si>
+    <t>707156</t>
+  </si>
+  <si>
+    <t>2907206</t>
+  </si>
+  <si>
+    <t>249933</t>
+  </si>
+  <si>
+    <t>798802</t>
+  </si>
+  <si>
+    <t>239%</t>
+  </si>
+  <si>
+    <t>651187</t>
+  </si>
+  <si>
+    <t>Le Péril jeune</t>
+  </si>
+  <si>
+    <t>100252</t>
+  </si>
+  <si>
+    <t>645639</t>
+  </si>
+  <si>
+    <t>43044</t>
+  </si>
+  <si>
+    <t>178377</t>
+  </si>
+  <si>
+    <t>244%</t>
+  </si>
+  <si>
+    <t>Mean Streets</t>
+  </si>
+  <si>
+    <t>1200000$</t>
+  </si>
+  <si>
+    <t>164678</t>
+  </si>
+  <si>
+    <t>68162</t>
+  </si>
+  <si>
+    <t>Harmonium</t>
+  </si>
+  <si>
+    <t>3453$</t>
+  </si>
+  <si>
+    <t>17191$</t>
+  </si>
+  <si>
+    <t>136092$</t>
+  </si>
+  <si>
+    <t>130051$</t>
+  </si>
+  <si>
+    <t>153283$</t>
+  </si>
+  <si>
+    <t>23441</t>
+  </si>
+  <si>
+    <t>63914</t>
+  </si>
+  <si>
+    <t>12044</t>
+  </si>
+  <si>
+    <t>27259</t>
+  </si>
+  <si>
+    <t>Le Prénom</t>
+  </si>
+  <si>
+    <t>8111$</t>
+  </si>
+  <si>
+    <t>29537789$</t>
+  </si>
+  <si>
+    <t>25601451$</t>
+  </si>
+  <si>
+    <t>29545900$</t>
+  </si>
+  <si>
+    <t>1086313</t>
+  </si>
+  <si>
+    <t>3340610</t>
+  </si>
+  <si>
+    <t>260184</t>
+  </si>
+  <si>
+    <t>694809</t>
+  </si>
+  <si>
+    <t>194%</t>
+  </si>
+  <si>
+    <t>833094</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>57001667$</t>
+  </si>
+  <si>
+    <t>165552000$</t>
+  </si>
+  <si>
+    <t>344100000$</t>
+  </si>
+  <si>
+    <t>20800000$</t>
+  </si>
+  <si>
+    <t>509652000$</t>
+  </si>
+  <si>
+    <t>1001236</t>
+  </si>
+  <si>
+    <t>2347666</t>
+  </si>
+  <si>
+    <t>263860</t>
+  </si>
+  <si>
+    <t>588560</t>
+  </si>
+  <si>
+    <t>Une part manquante</t>
+  </si>
+  <si>
+    <t>35817</t>
+  </si>
+  <si>
+    <t>71553</t>
+  </si>
+  <si>
+    <t>11983</t>
+  </si>
+  <si>
+    <t>19800</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>34858</t>
+  </si>
+  <si>
+    <t>Arrête-moi si tu peux</t>
+  </si>
+  <si>
+    <t>30053627$</t>
+  </si>
+  <si>
+    <t>164606800$</t>
+  </si>
+  <si>
+    <t>186497044$</t>
+  </si>
+  <si>
+    <t>22939762$</t>
+  </si>
+  <si>
+    <t>351103844$</t>
+  </si>
+  <si>
+    <t>1137654</t>
+  </si>
+  <si>
+    <t>3639440</t>
+  </si>
+  <si>
+    <t>321245</t>
+  </si>
+  <si>
+    <t>862800</t>
   </si>
 </sst>
 </file>
@@ -4674,13 +4920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B202" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K208" sqref="K208"/>
+      <selection pane="bottomRight" activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10816,6 +11062,354 @@
         <v>1426</v>
       </c>
     </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H210" t="s">
+        <v>299</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J210" t="s">
+        <v>299</v>
+      </c>
+      <c r="K210" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>45813</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>45823</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H212" t="s">
+        <v>299</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J212" t="s">
+        <v>299</v>
+      </c>
+      <c r="K212" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>45825</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L213" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M213" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K214" t="s">
+        <v>1455</v>
+      </c>
+      <c r="L214" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H215" t="s">
+        <v>299</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J215" t="s">
+        <v>299</v>
+      </c>
+      <c r="K215" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>45844</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K216" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>45846</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L217" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M217" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L219" t="s">
+        <v>1497</v>
+      </c>
+      <c r="M219" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>45865</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
